--- a/docs/RinPhone.vn.xlsx
+++ b/docs/RinPhone.vn.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Git\RinPhone.vn\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3111,13 +3111,6 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr lang="en-US" sz="1100"/>
-              <a:t>- id</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100"/>
               <a:t>- order_product_stock_id</a:t>
             </a:r>
           </a:p>
@@ -3572,15 +3565,6 @@
           <a:lstStyle/>
           <a:p>
             <a:r>
-              <a:rPr lang="en-US" sz="1100"/>
-              <a:t>- id</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
               <a:rPr lang="en-US" sz="1100">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
@@ -3996,13 +3980,6 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr lang="en-US" sz="1100"/>
-              <a:t>- id</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100"/>
               <a:t>- product_id</a:t>
             </a:r>
           </a:p>
@@ -4072,12 +4049,12 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>940319</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>112058</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>182876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>481853</xdr:colOff>
+      <xdr:colOff>283735</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>88971</xdr:rowOff>
     </xdr:to>
@@ -4086,12 +4063,13 @@
         <xdr:cNvPr id="80" name="Straight Arrow Connector 79"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="77" idx="3"/>
+          <a:endCxn id="103" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4795143" y="4347882"/>
-          <a:ext cx="505239" cy="2195677"/>
+          <a:off x="4795143" y="4216994"/>
+          <a:ext cx="307121" cy="2326565"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5929,7 +5907,7 @@
   <dimension ref="F34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/docs/RinPhone.vn.xlsx
+++ b/docs/RinPhone.vn.xlsx
@@ -1253,6 +1253,21 @@
               </a:rPr>
               <a:t>- id</a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>- status</a:t>
+            </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
               <a:t/>
@@ -1750,7 +1765,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>- cost</a:t>
+              <a:t>- cost_price</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -1785,6 +1800,21 @@
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
               <a:t>- status</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>- in_date</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -2452,7 +2482,7 @@
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>- user_id</a:t>
+              <a:t>- cashier_id</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -2487,6 +2517,21 @@
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
               <a:t>- amount</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>- paid_date</a:t>
             </a:r>
             <a:endParaRPr lang="en-US">
               <a:effectLst/>
@@ -5907,7 +5952,7 @@
   <dimension ref="F34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
